--- a/SENKU.xlsx
+++ b/SENKU.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731F180-72DC-4356-A2E7-BE45E559877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700BC35-ECA5-4100-82AE-0279E6DA3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12370" yWindow="630" windowWidth="25260" windowHeight="20330" xr2:uid="{734B650B-09E0-4F1E-9C1B-3A36529FDE50}"/>
+    <workbookView xWindow="9580" yWindow="2940" windowWidth="28800" windowHeight="15360" xr2:uid="{734B650B-09E0-4F1E-9C1B-3A36529FDE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="159">
   <si>
     <t>B</t>
   </si>
@@ -551,6 +551,190 @@
     <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B&lt;C&lt;A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B&lt;A&lt;C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A&lt;B&lt;C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A&lt;C&lt;B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A&lt;B&lt;C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B&lt;C&lt;A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A&lt;C&lt;B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B&lt;A&lt;C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A&lt;C&lt;B</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -922,27 +1106,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC962226-59C3-46EE-84B7-6D8EF84B066D}">
-  <dimension ref="A1:AE166"/>
+  <dimension ref="A1:AE180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="19.75" customWidth="1"/>
+    <col min="7" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.4140625" customWidth="1"/>
     <col min="12" max="12" width="14.58203125" customWidth="1"/>
     <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.25" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.1640625" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
     <col min="18" max="23" width="17.08203125" customWidth="1"/>
-    <col min="24" max="24" width="19.75" customWidth="1"/>
+    <col min="24" max="24" width="19.6640625" customWidth="1"/>
     <col min="25" max="30" width="17.08203125" customWidth="1"/>
-    <col min="31" max="31" width="19.75" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -16354,6 +16538,1315 @@
       </c>
       <c r="AE166" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>35.75</v>
+      </c>
+      <c r="E167">
+        <v>32.06</v>
+      </c>
+      <c r="F167">
+        <v>32.21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>113</v>
+      </c>
+      <c r="H167" t="s">
+        <v>114</v>
+      </c>
+      <c r="I167" t="s">
+        <v>115</v>
+      </c>
+      <c r="J167" t="s">
+        <v>116</v>
+      </c>
+      <c r="K167">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="L167">
+        <v>33.578000000000003</v>
+      </c>
+      <c r="M167">
+        <v>33.573999999999998</v>
+      </c>
+      <c r="N167" t="s">
+        <v>5</v>
+      </c>
+      <c r="O167" t="s">
+        <v>6</v>
+      </c>
+      <c r="P167" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>105</v>
+      </c>
+      <c r="R167">
+        <v>33.92</v>
+      </c>
+      <c r="S167">
+        <v>30.72</v>
+      </c>
+      <c r="T167">
+        <v>35.36</v>
+      </c>
+      <c r="U167" t="s">
+        <v>6</v>
+      </c>
+      <c r="V167" t="s">
+        <v>7</v>
+      </c>
+      <c r="W167" t="s">
+        <v>5</v>
+      </c>
+      <c r="X167" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y167">
+        <v>33.51</v>
+      </c>
+      <c r="Z167">
+        <v>31.8</v>
+      </c>
+      <c r="AA167">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>98</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>32.97</v>
+      </c>
+      <c r="E168">
+        <v>30.22</v>
+      </c>
+      <c r="F168">
+        <v>36.81</v>
+      </c>
+      <c r="G168" t="s">
+        <v>117</v>
+      </c>
+      <c r="H168" t="s">
+        <v>118</v>
+      </c>
+      <c r="I168" t="s">
+        <v>119</v>
+      </c>
+      <c r="J168" t="s">
+        <v>120</v>
+      </c>
+      <c r="K168">
+        <v>35.75</v>
+      </c>
+      <c r="L168">
+        <v>32.06</v>
+      </c>
+      <c r="M168">
+        <v>32.21</v>
+      </c>
+      <c r="N168" t="s">
+        <v>113</v>
+      </c>
+      <c r="O168" t="s">
+        <v>114</v>
+      </c>
+      <c r="P168" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>116</v>
+      </c>
+      <c r="R168">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="S168">
+        <v>33.578000000000003</v>
+      </c>
+      <c r="T168">
+        <v>33.573999999999998</v>
+      </c>
+      <c r="U168" t="s">
+        <v>5</v>
+      </c>
+      <c r="V168" t="s">
+        <v>6</v>
+      </c>
+      <c r="W168" t="s">
+        <v>7</v>
+      </c>
+      <c r="X168" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y168">
+        <v>33.92</v>
+      </c>
+      <c r="Z168">
+        <v>30.72</v>
+      </c>
+      <c r="AA168">
+        <v>35.36</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>98</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>30.67</v>
+      </c>
+      <c r="E169">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="F169">
+        <v>36.81</v>
+      </c>
+      <c r="G169" t="s">
+        <v>121</v>
+      </c>
+      <c r="H169" t="s">
+        <v>122</v>
+      </c>
+      <c r="I169" t="s">
+        <v>123</v>
+      </c>
+      <c r="J169" t="s">
+        <v>124</v>
+      </c>
+      <c r="K169">
+        <v>32.97</v>
+      </c>
+      <c r="L169">
+        <v>30.22</v>
+      </c>
+      <c r="M169">
+        <v>36.81</v>
+      </c>
+      <c r="N169" t="s">
+        <v>117</v>
+      </c>
+      <c r="O169" t="s">
+        <v>118</v>
+      </c>
+      <c r="P169" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>120</v>
+      </c>
+      <c r="R169">
+        <v>35.75</v>
+      </c>
+      <c r="S169">
+        <v>32.06</v>
+      </c>
+      <c r="T169">
+        <v>32.21</v>
+      </c>
+      <c r="U169" t="s">
+        <v>6</v>
+      </c>
+      <c r="V169" t="s">
+        <v>5</v>
+      </c>
+      <c r="W169" t="s">
+        <v>7</v>
+      </c>
+      <c r="X169" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y169">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="Z169">
+        <v>33.578000000000003</v>
+      </c>
+      <c r="AA169">
+        <v>33.573999999999998</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>98</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>28.68</v>
+      </c>
+      <c r="E170">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="F170">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="G170" t="s">
+        <v>125</v>
+      </c>
+      <c r="H170" t="s">
+        <v>127</v>
+      </c>
+      <c r="I170" t="s">
+        <v>126</v>
+      </c>
+      <c r="J170" t="s">
+        <v>128</v>
+      </c>
+      <c r="K170">
+        <v>30.67</v>
+      </c>
+      <c r="L170">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="M170">
+        <v>36.81</v>
+      </c>
+      <c r="N170" t="s">
+        <v>121</v>
+      </c>
+      <c r="O170" t="s">
+        <v>122</v>
+      </c>
+      <c r="P170" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>124</v>
+      </c>
+      <c r="R170">
+        <v>32.97</v>
+      </c>
+      <c r="S170">
+        <v>30.22</v>
+      </c>
+      <c r="T170">
+        <v>36.81</v>
+      </c>
+      <c r="U170" t="s">
+        <v>6</v>
+      </c>
+      <c r="V170" t="s">
+        <v>7</v>
+      </c>
+      <c r="W170" t="s">
+        <v>5</v>
+      </c>
+      <c r="X170" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y170">
+        <v>35.75</v>
+      </c>
+      <c r="Z170">
+        <v>32.06</v>
+      </c>
+      <c r="AA170">
+        <v>32.21</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>98</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>31.26</v>
+      </c>
+      <c r="E171">
+        <v>31.6</v>
+      </c>
+      <c r="F171">
+        <v>37.14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>129</v>
+      </c>
+      <c r="H171" t="s">
+        <v>130</v>
+      </c>
+      <c r="I171" t="s">
+        <v>131</v>
+      </c>
+      <c r="J171" t="s">
+        <v>132</v>
+      </c>
+      <c r="K171">
+        <v>28.68</v>
+      </c>
+      <c r="L171">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="M171">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="N171" t="s">
+        <v>125</v>
+      </c>
+      <c r="O171" t="s">
+        <v>127</v>
+      </c>
+      <c r="P171" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>128</v>
+      </c>
+      <c r="R171">
+        <v>30.67</v>
+      </c>
+      <c r="S171">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="T171">
+        <v>36.81</v>
+      </c>
+      <c r="U171" t="s">
+        <v>5</v>
+      </c>
+      <c r="V171" t="s">
+        <v>7</v>
+      </c>
+      <c r="W171" t="s">
+        <v>6</v>
+      </c>
+      <c r="X171" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y171">
+        <v>32.97</v>
+      </c>
+      <c r="Z171">
+        <v>30.22</v>
+      </c>
+      <c r="AA171">
+        <v>36.81</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>98</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>29.57</v>
+      </c>
+      <c r="E172">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="F172">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="G172" t="s">
+        <v>133</v>
+      </c>
+      <c r="H172" t="s">
+        <v>134</v>
+      </c>
+      <c r="I172" t="s">
+        <v>135</v>
+      </c>
+      <c r="J172" t="s">
+        <v>124</v>
+      </c>
+      <c r="K172">
+        <v>31.26</v>
+      </c>
+      <c r="L172">
+        <v>31.6</v>
+      </c>
+      <c r="M172">
+        <v>37.14</v>
+      </c>
+      <c r="N172" t="s">
+        <v>129</v>
+      </c>
+      <c r="O172" t="s">
+        <v>130</v>
+      </c>
+      <c r="P172" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>132</v>
+      </c>
+      <c r="R172">
+        <v>28.68</v>
+      </c>
+      <c r="S172">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="T172">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="U172" t="s">
+        <v>5</v>
+      </c>
+      <c r="V172" t="s">
+        <v>6</v>
+      </c>
+      <c r="W172" t="s">
+        <v>7</v>
+      </c>
+      <c r="X172" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y172">
+        <v>30.67</v>
+      </c>
+      <c r="Z172">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="AA172">
+        <v>36.81</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>98</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>34.58</v>
+      </c>
+      <c r="E173">
+        <v>31.78</v>
+      </c>
+      <c r="F173">
+        <v>33.64</v>
+      </c>
+      <c r="G173" t="s">
+        <v>136</v>
+      </c>
+      <c r="H173" t="s">
+        <v>138</v>
+      </c>
+      <c r="I173" t="s">
+        <v>137</v>
+      </c>
+      <c r="J173" t="s">
+        <v>139</v>
+      </c>
+      <c r="K173">
+        <v>29.57</v>
+      </c>
+      <c r="L173">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="M173">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="N173" t="s">
+        <v>133</v>
+      </c>
+      <c r="O173" t="s">
+        <v>134</v>
+      </c>
+      <c r="P173" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>124</v>
+      </c>
+      <c r="R173">
+        <v>31.26</v>
+      </c>
+      <c r="S173">
+        <v>31.6</v>
+      </c>
+      <c r="T173">
+        <v>37.14</v>
+      </c>
+      <c r="U173" t="s">
+        <v>5</v>
+      </c>
+      <c r="V173" t="s">
+        <v>7</v>
+      </c>
+      <c r="W173" t="s">
+        <v>6</v>
+      </c>
+      <c r="X173" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y173">
+        <v>28.68</v>
+      </c>
+      <c r="Z173">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="AA173">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>98</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>31.97</v>
+      </c>
+      <c r="E174">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="F174">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="G174" t="s">
+        <v>140</v>
+      </c>
+      <c r="H174" t="s">
+        <v>7</v>
+      </c>
+      <c r="I174" t="s">
+        <v>6</v>
+      </c>
+      <c r="J174" t="s">
+        <v>124</v>
+      </c>
+      <c r="K174">
+        <v>34.58</v>
+      </c>
+      <c r="L174">
+        <v>31.78</v>
+      </c>
+      <c r="M174">
+        <v>33.64</v>
+      </c>
+      <c r="N174" t="s">
+        <v>136</v>
+      </c>
+      <c r="O174" t="s">
+        <v>138</v>
+      </c>
+      <c r="P174" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>139</v>
+      </c>
+      <c r="R174">
+        <v>29.57</v>
+      </c>
+      <c r="S174">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="T174">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="U174" t="s">
+        <v>5</v>
+      </c>
+      <c r="V174" t="s">
+        <v>7</v>
+      </c>
+      <c r="W174" t="s">
+        <v>6</v>
+      </c>
+      <c r="X174" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y174">
+        <v>31.26</v>
+      </c>
+      <c r="Z174">
+        <v>31.6</v>
+      </c>
+      <c r="AA174">
+        <v>37.14</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>9</v>
+      </c>
+      <c r="D175">
+        <v>31.56</v>
+      </c>
+      <c r="E175">
+        <v>35.53</v>
+      </c>
+      <c r="F175">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="G175" t="s">
+        <v>141</v>
+      </c>
+      <c r="H175" t="s">
+        <v>142</v>
+      </c>
+      <c r="I175" t="s">
+        <v>143</v>
+      </c>
+      <c r="J175" t="s">
+        <v>144</v>
+      </c>
+      <c r="K175">
+        <v>31.97</v>
+      </c>
+      <c r="L175">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="M175">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="N175" t="s">
+        <v>140</v>
+      </c>
+      <c r="O175" t="s">
+        <v>7</v>
+      </c>
+      <c r="P175" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>124</v>
+      </c>
+      <c r="R175">
+        <v>34.58</v>
+      </c>
+      <c r="S175">
+        <v>31.78</v>
+      </c>
+      <c r="T175">
+        <v>33.64</v>
+      </c>
+      <c r="U175" t="s">
+        <v>6</v>
+      </c>
+      <c r="V175" t="s">
+        <v>5</v>
+      </c>
+      <c r="W175" t="s">
+        <v>7</v>
+      </c>
+      <c r="X175" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y175">
+        <v>29.57</v>
+      </c>
+      <c r="Z175">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="AA175">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>98</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176">
+        <v>33.49</v>
+      </c>
+      <c r="E176">
+        <v>32.01</v>
+      </c>
+      <c r="F176">
+        <v>34.5</v>
+      </c>
+      <c r="G176" t="s">
+        <v>145</v>
+      </c>
+      <c r="H176" t="s">
+        <v>146</v>
+      </c>
+      <c r="I176" t="s">
+        <v>147</v>
+      </c>
+      <c r="J176" t="s">
+        <v>148</v>
+      </c>
+      <c r="K176">
+        <v>31.56</v>
+      </c>
+      <c r="L176">
+        <v>35.53</v>
+      </c>
+      <c r="M176">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="N176" t="s">
+        <v>141</v>
+      </c>
+      <c r="O176" t="s">
+        <v>142</v>
+      </c>
+      <c r="P176" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>144</v>
+      </c>
+      <c r="R176">
+        <v>31.97</v>
+      </c>
+      <c r="S176">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="T176">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="U176" t="s">
+        <v>5</v>
+      </c>
+      <c r="V176" t="s">
+        <v>7</v>
+      </c>
+      <c r="W176" t="s">
+        <v>6</v>
+      </c>
+      <c r="X176" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y176">
+        <v>34.58</v>
+      </c>
+      <c r="Z176">
+        <v>31.78</v>
+      </c>
+      <c r="AA176">
+        <v>33.64</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177">
+        <v>34.21</v>
+      </c>
+      <c r="E177">
+        <v>30.75</v>
+      </c>
+      <c r="F177">
+        <v>35.04</v>
+      </c>
+      <c r="G177" t="s">
+        <v>149</v>
+      </c>
+      <c r="H177" t="s">
+        <v>151</v>
+      </c>
+      <c r="I177" t="s">
+        <v>150</v>
+      </c>
+      <c r="J177" t="s">
+        <v>120</v>
+      </c>
+      <c r="K177">
+        <v>33.49</v>
+      </c>
+      <c r="L177">
+        <v>32.01</v>
+      </c>
+      <c r="M177">
+        <v>34.5</v>
+      </c>
+      <c r="N177" t="s">
+        <v>145</v>
+      </c>
+      <c r="O177" t="s">
+        <v>146</v>
+      </c>
+      <c r="P177" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>148</v>
+      </c>
+      <c r="R177">
+        <v>31.56</v>
+      </c>
+      <c r="S177">
+        <v>35.53</v>
+      </c>
+      <c r="T177">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="U177" t="s">
+        <v>5</v>
+      </c>
+      <c r="V177" t="s">
+        <v>6</v>
+      </c>
+      <c r="W177" t="s">
+        <v>7</v>
+      </c>
+      <c r="X177" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y177">
+        <v>31.97</v>
+      </c>
+      <c r="Z177">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="AA177">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
+        <v>98</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>33.25</v>
+      </c>
+      <c r="E178">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F178">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="G178" t="s">
+        <v>152</v>
+      </c>
+      <c r="H178" t="s">
+        <v>154</v>
+      </c>
+      <c r="I178" t="s">
+        <v>153</v>
+      </c>
+      <c r="J178" t="s">
+        <v>120</v>
+      </c>
+      <c r="K178">
+        <v>34.21</v>
+      </c>
+      <c r="L178">
+        <v>30.75</v>
+      </c>
+      <c r="M178">
+        <v>35.04</v>
+      </c>
+      <c r="N178" t="s">
+        <v>149</v>
+      </c>
+      <c r="O178" t="s">
+        <v>151</v>
+      </c>
+      <c r="P178" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>120</v>
+      </c>
+      <c r="R178">
+        <v>33.49</v>
+      </c>
+      <c r="S178">
+        <v>32.01</v>
+      </c>
+      <c r="T178">
+        <v>34.5</v>
+      </c>
+      <c r="U178" t="s">
+        <v>6</v>
+      </c>
+      <c r="V178" t="s">
+        <v>7</v>
+      </c>
+      <c r="W178" t="s">
+        <v>5</v>
+      </c>
+      <c r="X178" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y178">
+        <v>31.56</v>
+      </c>
+      <c r="Z178">
+        <v>35.53</v>
+      </c>
+      <c r="AA178">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
+        <v>98</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>13</v>
+      </c>
+      <c r="D179">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="E179">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="F179">
+        <v>33.4</v>
+      </c>
+      <c r="G179" t="s">
+        <v>155</v>
+      </c>
+      <c r="H179" t="s">
+        <v>157</v>
+      </c>
+      <c r="I179" t="s">
+        <v>156</v>
+      </c>
+      <c r="J179" t="s">
+        <v>158</v>
+      </c>
+      <c r="K179">
+        <v>33.25</v>
+      </c>
+      <c r="L179">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M179">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="N179" t="s">
+        <v>152</v>
+      </c>
+      <c r="O179" t="s">
+        <v>154</v>
+      </c>
+      <c r="P179" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>120</v>
+      </c>
+      <c r="R179">
+        <v>34.21</v>
+      </c>
+      <c r="S179">
+        <v>30.75</v>
+      </c>
+      <c r="T179">
+        <v>35.04</v>
+      </c>
+      <c r="U179" t="s">
+        <v>6</v>
+      </c>
+      <c r="V179" t="s">
+        <v>7</v>
+      </c>
+      <c r="W179" t="s">
+        <v>5</v>
+      </c>
+      <c r="X179" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y179">
+        <v>33.49</v>
+      </c>
+      <c r="Z179">
+        <v>32.01</v>
+      </c>
+      <c r="AA179">
+        <v>34.5</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>98</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>14</v>
+      </c>
+      <c r="K180">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="L180">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="M180">
+        <v>33.4</v>
+      </c>
+      <c r="N180" t="s">
+        <v>155</v>
+      </c>
+      <c r="O180" t="s">
+        <v>157</v>
+      </c>
+      <c r="P180" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>158</v>
+      </c>
+      <c r="R180">
+        <v>33.25</v>
+      </c>
+      <c r="S180">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="T180">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="U180" t="s">
+        <v>6</v>
+      </c>
+      <c r="V180" t="s">
+        <v>7</v>
+      </c>
+      <c r="W180" t="s">
+        <v>5</v>
+      </c>
+      <c r="X180" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y180">
+        <v>34.21</v>
+      </c>
+      <c r="Z180">
+        <v>30.75</v>
+      </c>
+      <c r="AA180">
+        <v>35.04</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
